--- a/InputData/ccs/CC/CCS Costs.xlsx
+++ b/InputData/ccs/CC/CCS Costs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24915" windowHeight="13860"/>
+    <workbookView xWindow="120" yWindow="36" windowWidth="24912" windowHeight="13860"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="CC-TOMCpTS" sheetId="5" r:id="rId5"/>
     <sheet name="CC-EUpTCS" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
   <si>
     <t>Source:</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>Energy Use per Ton Sequestered (BTU/ton)</t>
+  </si>
+  <si>
+    <t>The document does not specify the year of the dollars shown, so we assume that the</t>
+  </si>
+  <si>
+    <t>dollars (at least for the 2012 values) are in 2012 dollars and thus need no conversion.</t>
   </si>
 </sst>
 </file>
@@ -731,32 +737,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="55.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="55.88671875" customWidth="1"/>
+    <col min="4" max="4" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -764,79 +770,89 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -854,21 +870,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -891,7 +907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
@@ -914,7 +930,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
@@ -928,7 +944,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
@@ -951,7 +967,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
@@ -974,7 +990,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
@@ -997,7 +1013,7 @@
         <v>5677</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>13</v>
       </c>
@@ -1020,7 +1036,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>18</v>
       </c>
@@ -1043,7 +1059,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>19</v>
       </c>
@@ -1066,7 +1082,7 @@
         <v>0.29699999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>20</v>
       </c>
@@ -1077,7 +1093,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>21</v>
       </c>
@@ -1100,7 +1116,7 @@
         <v>6570</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>22</v>
       </c>
@@ -1123,7 +1139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>23</v>
       </c>
@@ -1146,7 +1162,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>24</v>
       </c>
@@ -1169,7 +1185,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>25</v>
       </c>
@@ -1180,7 +1196,7 @@
       <c r="F17" s="18"/>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>26</v>
       </c>
@@ -1203,7 +1219,7 @@
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>27</v>
       </c>
@@ -1226,7 +1242,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>28</v>
       </c>
@@ -1249,7 +1265,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>29</v>
       </c>
@@ -1272,7 +1288,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>30</v>
       </c>
@@ -1295,7 +1311,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>31</v>
       </c>
@@ -1318,7 +1334,7 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>32</v>
       </c>
@@ -1329,7 +1345,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="19"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>33</v>
       </c>
@@ -1352,7 +1368,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>17</v>
       </c>
@@ -1375,7 +1391,7 @@
         <v>6308</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>15</v>
       </c>
@@ -1398,7 +1414,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>26</v>
       </c>
@@ -1421,7 +1437,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>27</v>
       </c>
@@ -1444,7 +1460,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>28</v>
       </c>
@@ -1467,7 +1483,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>29</v>
       </c>
@@ -1490,7 +1506,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>30</v>
       </c>
@@ -1513,7 +1529,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>31</v>
       </c>
@@ -1536,7 +1552,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>34</v>
       </c>
@@ -1547,7 +1563,7 @@
       <c r="F34" s="18"/>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>35</v>
       </c>
@@ -1570,7 +1586,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>36</v>
       </c>
@@ -1627,11 +1643,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1846,10 +1862,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1889,10 +1905,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1932,10 +1948,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="2" max="2" width="42.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">

--- a/InputData/ccs/CC/CCS Costs.xlsx
+++ b/InputData/ccs/CC/CCS Costs.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\ccs\CC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="36" windowWidth="24912" windowHeight="13860"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24915" windowHeight="13860"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -14,12 +19,12 @@
     <sheet name="CC-TOMCpTS" sheetId="5" r:id="rId5"/>
     <sheet name="CC-EUpTCS" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
   <si>
     <t>Source:</t>
   </si>
@@ -219,31 +224,40 @@
     <t>CC Capital Cost of Eqpt to Sequester One Ton of CO2 per Year</t>
   </si>
   <si>
-    <t>Capital cost ($/(ton*yr))</t>
-  </si>
-  <si>
     <t>Capital Cost of Eqpt to Sequester One Ton of CO2 per Year</t>
   </si>
   <si>
-    <t>O&amp;M Cost per Ton ($/ton)</t>
-  </si>
-  <si>
     <t>RESULT ($/ton)</t>
   </si>
   <si>
-    <t>Energy Use per Ton Sequestered (BTU/ton)</t>
-  </si>
-  <si>
     <t>The document does not specify the year of the dollars shown, so we assume that the</t>
   </si>
   <si>
     <t>dollars (at least for the 2012 values) are in 2012 dollars and thus need no conversion.</t>
+  </si>
+  <si>
+    <t>Capital cost ($/(metric ton CO2e*yr))</t>
+  </si>
+  <si>
+    <t>O&amp;M Cost per Ton ($/metric ton CO2e)</t>
+  </si>
+  <si>
+    <t>Energy Use per Ton Sequestered (BTU/metric ton CO2e)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This variable captures the capital and O&amp;M costs and energy use of </t>
+  </si>
+  <si>
+    <t>carbon capture and sequestration, for both the power and industry</t>
+  </si>
+  <si>
+    <t>sectors.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
@@ -395,7 +409,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -432,8 +446,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -445,6 +460,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -493,7 +511,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -528,7 +546,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -737,32 +755,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="55.88671875" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -770,89 +790,107 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>72</v>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -870,21 +908,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -907,7 +945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
@@ -930,7 +968,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
@@ -944,7 +982,7 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
@@ -967,7 +1005,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
@@ -990,7 +1028,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
@@ -1013,7 +1051,7 @@
         <v>5677</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>13</v>
       </c>
@@ -1036,7 +1074,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>18</v>
       </c>
@@ -1059,7 +1097,7 @@
         <v>4.68</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>19</v>
       </c>
@@ -1082,7 +1120,7 @@
         <v>0.29699999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>20</v>
       </c>
@@ -1093,7 +1131,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>21</v>
       </c>
@@ -1116,7 +1154,7 @@
         <v>6570</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>22</v>
       </c>
@@ -1139,7 +1177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>23</v>
       </c>
@@ -1162,7 +1200,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>24</v>
       </c>
@@ -1185,7 +1223,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>25</v>
       </c>
@@ -1196,7 +1234,7 @@
       <c r="F17" s="18"/>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>26</v>
       </c>
@@ -1219,7 +1257,7 @@
         <v>0.33700000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>27</v>
       </c>
@@ -1242,7 +1280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>28</v>
       </c>
@@ -1265,7 +1303,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>29</v>
       </c>
@@ -1288,7 +1326,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>30</v>
       </c>
@@ -1311,7 +1349,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>31</v>
       </c>
@@ -1334,7 +1372,7 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>32</v>
       </c>
@@ -1345,7 +1383,7 @@
       <c r="F24" s="18"/>
       <c r="G24" s="19"/>
     </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>33</v>
       </c>
@@ -1368,7 +1406,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>17</v>
       </c>
@@ -1391,7 +1429,7 @@
         <v>6308</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>15</v>
       </c>
@@ -1414,7 +1452,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>26</v>
       </c>
@@ -1437,7 +1475,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>27</v>
       </c>
@@ -1460,7 +1498,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>28</v>
       </c>
@@ -1483,7 +1521,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>29</v>
       </c>
@@ -1506,7 +1544,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>30</v>
       </c>
@@ -1529,7 +1567,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>31</v>
       </c>
@@ -1552,7 +1590,7 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>34</v>
       </c>
@@ -1563,7 +1601,7 @@
       <c r="F34" s="18"/>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>35</v>
       </c>
@@ -1586,7 +1624,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>36</v>
       </c>
@@ -1643,16 +1681,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5546875" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1774,7 +1812,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B14" s="26">
         <f>B11*B12*B13</f>
@@ -1860,20 +1898,22 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -1882,7 +1922,7 @@
         <v>41.856925418569254</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -1903,20 +1943,22 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -1925,7 +1967,7 @@
         <v>2.39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -1946,20 +1988,22 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="42.5546875" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -1968,7 +2012,7 @@
         <v>460620</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
